--- a/models/CODES_LIT.xlsx
+++ b/models/CODES_LIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="578">
   <si>
     <t>AGE</t>
   </si>
@@ -1692,6 +1692,12 @@
   </si>
   <si>
     <t>Sedentary</t>
+  </si>
+  <si>
+    <t>MEASUREMENT</t>
+  </si>
+  <si>
+    <t>MEASUREMENT_NAME</t>
   </si>
   <si>
     <t>Individual Prevalence</t>
@@ -1795,7 +1801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1812,42 +1818,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1870,25 +1846,55 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1915,13 +1921,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,13 +1942,58 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -1950,57 +2001,12 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -2017,22 +2023,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -2040,10 +2046,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2053,46 +2092,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2103,41 +2139,41 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2146,106 +2182,103 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2265,11 +2298,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff737373"/>
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ffececec"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2468,17 +2501,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2506,10 +2539,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2757,12 +2790,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3049,7 +3082,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3077,10 +3110,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3731,8 +3764,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="44" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="44" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="45" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -3822,283 +3855,283 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.6719" style="45" customWidth="1"/>
-    <col min="2" max="2" width="22.8516" style="45" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="45" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="45" customWidth="1"/>
+    <col min="1" max="1" width="26.6719" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.8516" style="46" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="46" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="46">
-        <v>560</v>
+      <c r="A1" t="s" s="34">
+        <v>562</v>
       </c>
       <c r="B1" t="s" s="34">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="47">
-        <v>562</v>
+      <c r="A2" t="s" s="2">
+        <v>564</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="47">
-        <v>564</v>
+      <c r="A3" t="s" s="2">
+        <v>566</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="47">
-        <v>566</v>
+      <c r="A4" t="s" s="2">
+        <v>568</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="47">
+      <c r="A5" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="47">
-        <v>568</v>
+      <c r="A6" t="s" s="2">
+        <v>570</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="47">
-        <v>569</v>
+      <c r="A7" t="s" s="2">
+        <v>571</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="47">
-        <v>570</v>
+      <c r="A8" t="s" s="2">
+        <v>572</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="47">
-        <v>571</v>
+      <c r="A9" t="s" s="2">
+        <v>573</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="47">
-        <v>572</v>
+      <c r="A10" t="s" s="2">
+        <v>574</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="47">
-        <v>573</v>
+      <c r="A11" t="s" s="2">
+        <v>575</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="47">
-        <v>574</v>
+      <c r="A12" t="s" s="2">
+        <v>576</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="47">
-        <v>575</v>
+      <c r="A13" t="s" s="2">
+        <v>577</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="43"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="43"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="43"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="43"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -10382,7 +10415,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10397,1834 +10430,1851 @@
       <c r="A1" t="s" s="38">
         <v>557</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" t="s" s="39">
+        <v>558</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="38">
-        <v>558</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="3"/>
+        <v>559</v>
+      </c>
+      <c r="B2" t="s" s="38">
+        <v>559</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="38">
-        <v>559</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
+        <v>560</v>
+      </c>
+      <c r="B3" t="s" s="38">
+        <v>560</v>
+      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3"/>
+      <c r="A4" t="s" s="38">
+        <v>561</v>
+      </c>
+      <c r="B4" t="s" s="38">
+        <v>561</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="26"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="26"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="43"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="43"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="43"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="43"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="43"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="43"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="43"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="43"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="43"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="43"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="43"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="43"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="43"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="43"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="43"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="43"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="43"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="43"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="43"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="43"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="43"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="43"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="43"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="43"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="43"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="43"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="43"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="43"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="43"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="43"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="43"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="43"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="43"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="43"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="43"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="43"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="43"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="43"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="43"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="43"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="43"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="43"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="43"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="43"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="43"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="43"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="43"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="43"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="43"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="43"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="43"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="43"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="43"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="43"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="43"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="43"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="43"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="43"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="43"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="43"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="43"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="43"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="43"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="43"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="43"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="43"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="43"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="43"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="43"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="43"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="43"/>
+      <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="43"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="43"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="43"/>
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="43"/>
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="43"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="43"/>
+      <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="43"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="43"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="43"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="43"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="43"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" s="43"/>
+      <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="43"/>
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="43"/>
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="43"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="43"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="43"/>
+      <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="43"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="43"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="43"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="43"/>
+      <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="43"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="43"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="43"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="43"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="43"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="43"/>
+      <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" s="43"/>
+      <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" s="43"/>
+      <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" s="43"/>
+      <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="43"/>
+      <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="A135" s="43"/>
+      <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="43"/>
+      <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="43"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="A138" s="43"/>
+      <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="A139" s="43"/>
+      <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" s="43"/>
+      <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="43"/>
+      <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="A142" s="43"/>
+      <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15" customHeight="1">
-      <c r="A143" s="43"/>
+      <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="A144" s="43"/>
+      <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="43"/>
+      <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15" customHeight="1">
-      <c r="A146" s="43"/>
+      <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="A147" s="43"/>
+      <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15" customHeight="1">
-      <c r="A148" s="43"/>
+      <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15" customHeight="1">
-      <c r="A149" s="43"/>
+      <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="A150" s="43"/>
+      <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15" customHeight="1">
-      <c r="A151" s="43"/>
+      <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="A152" s="43"/>
+      <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15" customHeight="1">
-      <c r="A153" s="43"/>
+      <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="43"/>
+      <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15" customHeight="1">
-      <c r="A155" s="43"/>
+      <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15" customHeight="1">
-      <c r="A156" s="43"/>
+      <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15" customHeight="1">
-      <c r="A157" s="43"/>
+      <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15" customHeight="1">
-      <c r="A158" s="43"/>
+      <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15" customHeight="1">
-      <c r="A159" s="43"/>
+      <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15" customHeight="1">
-      <c r="A160" s="43"/>
+      <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="A161" s="43"/>
+      <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15" customHeight="1">
-      <c r="A162" s="43"/>
+      <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15" customHeight="1">
-      <c r="A163" s="43"/>
+      <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15" customHeight="1">
-      <c r="A164" s="43"/>
+      <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15" customHeight="1">
-      <c r="A165" s="43"/>
+      <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15" customHeight="1">
-      <c r="A166" s="43"/>
+      <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15" customHeight="1">
-      <c r="A167" s="43"/>
+      <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15" customHeight="1">
-      <c r="A168" s="43"/>
+      <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="A169" s="43"/>
+      <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="A170" s="43"/>
+      <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="A171" s="43"/>
+      <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" s="43"/>
+      <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" s="43"/>
+      <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="43"/>
+      <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="A175" s="43"/>
+      <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="43"/>
+      <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15" customHeight="1">
-      <c r="A177" s="43"/>
+      <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="A178" s="43"/>
+      <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="A179" s="43"/>
+      <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="A180" s="43"/>
+      <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15" customHeight="1">
-      <c r="A181" s="43"/>
+      <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" s="43"/>
+      <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="A183" s="43"/>
+      <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="A184" s="43"/>
+      <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="43"/>
+      <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="A186" s="43"/>
+      <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15" customHeight="1">
-      <c r="A187" s="43"/>
+      <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15" customHeight="1">
-      <c r="A188" s="43"/>
+      <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="43"/>
+      <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15" customHeight="1">
-      <c r="A190" s="43"/>
+      <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15" customHeight="1">
-      <c r="A191" s="43"/>
+      <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15" customHeight="1">
-      <c r="A192" s="43"/>
+      <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15" customHeight="1">
-      <c r="A193" s="43"/>
+      <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="A194" s="43"/>
+      <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
     <row r="195" ht="15" customHeight="1">
-      <c r="A195" s="43"/>
+      <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" ht="15" customHeight="1">
-      <c r="A196" s="43"/>
+      <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="A197" s="43"/>
+      <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
     <row r="198" ht="15" customHeight="1">
-      <c r="A198" s="43"/>
+      <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" ht="15" customHeight="1">
-      <c r="A199" s="43"/>
+      <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="43"/>
+      <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" ht="15" customHeight="1">
-      <c r="A201" s="43"/>
+      <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="43"/>
+      <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15" customHeight="1">
-      <c r="A203" s="43"/>
+      <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15" customHeight="1">
-      <c r="A204" s="43"/>
+      <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15" customHeight="1">
-      <c r="A205" s="43"/>
+      <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206" ht="15" customHeight="1">
-      <c r="A206" s="43"/>
+      <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" ht="15" customHeight="1">
-      <c r="A207" s="43"/>
+      <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
     <row r="208" ht="15" customHeight="1">
-      <c r="A208" s="43"/>
+      <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
     <row r="209" ht="15" customHeight="1">
-      <c r="A209" s="43"/>
+      <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
     <row r="210" ht="15" customHeight="1">
-      <c r="A210" s="43"/>
+      <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" ht="15" customHeight="1">
-      <c r="A211" s="43"/>
+      <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" ht="15" customHeight="1">
-      <c r="A212" s="43"/>
+      <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
     <row r="213" ht="15" customHeight="1">
-      <c r="A213" s="43"/>
+      <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
     <row r="214" ht="15" customHeight="1">
-      <c r="A214" s="43"/>
+      <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" ht="15" customHeight="1">
-      <c r="A215" s="43"/>
+      <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
     <row r="216" ht="15" customHeight="1">
-      <c r="A216" s="43"/>
+      <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
     <row r="217" ht="15" customHeight="1">
-      <c r="A217" s="43"/>
+      <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
     <row r="218" ht="15" customHeight="1">
-      <c r="A218" s="43"/>
+      <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219" ht="15" customHeight="1">
-      <c r="A219" s="43"/>
+      <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220" ht="15" customHeight="1">
-      <c r="A220" s="43"/>
+      <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
     <row r="221" ht="15" customHeight="1">
-      <c r="A221" s="43"/>
+      <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
     <row r="222" ht="15" customHeight="1">
-      <c r="A222" s="43"/>
+      <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
     <row r="223" ht="15" customHeight="1">
-      <c r="A223" s="43"/>
+      <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
     <row r="224" ht="15" customHeight="1">
-      <c r="A224" s="43"/>
+      <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" ht="15" customHeight="1">
-      <c r="A225" s="43"/>
+      <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
     <row r="226" ht="15" customHeight="1">
-      <c r="A226" s="43"/>
+      <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" ht="15" customHeight="1">
-      <c r="A227" s="43"/>
+      <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
     <row r="228" ht="15" customHeight="1">
-      <c r="A228" s="43"/>
+      <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" ht="15" customHeight="1">
-      <c r="A229" s="43"/>
+      <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" ht="15" customHeight="1">
-      <c r="A230" s="43"/>
+      <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" ht="15" customHeight="1">
-      <c r="A231" s="43"/>
+      <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
     <row r="232" ht="15" customHeight="1">
-      <c r="A232" s="43"/>
+      <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
     <row r="233" ht="15" customHeight="1">
-      <c r="A233" s="43"/>
+      <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
     <row r="234" ht="15" customHeight="1">
-      <c r="A234" s="43"/>
+      <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
     <row r="235" ht="15" customHeight="1">
-      <c r="A235" s="43"/>
+      <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" ht="15" customHeight="1">
-      <c r="A236" s="43"/>
+      <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
     <row r="237" ht="15" customHeight="1">
-      <c r="A237" s="43"/>
+      <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
     <row r="238" ht="15" customHeight="1">
-      <c r="A238" s="43"/>
+      <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
     <row r="239" ht="15" customHeight="1">
-      <c r="A239" s="43"/>
+      <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" ht="15" customHeight="1">
-      <c r="A240" s="43"/>
+      <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" ht="15" customHeight="1">
-      <c r="A241" s="43"/>
+      <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
     <row r="242" ht="15" customHeight="1">
-      <c r="A242" s="43"/>
+      <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" ht="15" customHeight="1">
-      <c r="A243" s="43"/>
+      <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" ht="15" customHeight="1">
-      <c r="A244" s="43"/>
+      <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" ht="15" customHeight="1">
-      <c r="A245" s="43"/>
+      <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" ht="15" customHeight="1">
-      <c r="A246" s="43"/>
+      <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" ht="15" customHeight="1">
-      <c r="A247" s="43"/>
+      <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
     <row r="248" ht="15" customHeight="1">
-      <c r="A248" s="43"/>
+      <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" ht="15" customHeight="1">
-      <c r="A249" s="43"/>
+      <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
     <row r="250" ht="15" customHeight="1">
-      <c r="A250" s="43"/>
+      <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
     <row r="251" ht="15" customHeight="1">
-      <c r="A251" s="43"/>
+      <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" ht="15" customHeight="1">
-      <c r="A252" s="43"/>
+      <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" ht="15" customHeight="1">
-      <c r="A253" s="43"/>
+      <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" ht="15" customHeight="1">
-      <c r="A254" s="43"/>
+      <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
     <row r="255" ht="15" customHeight="1">
-      <c r="A255" s="43"/>
+      <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
     <row r="256" ht="15" customHeight="1">
-      <c r="A256" s="43"/>
+      <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257" ht="15" customHeight="1">
-      <c r="A257" s="43"/>
+      <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258" ht="15" customHeight="1">
-      <c r="A258" s="43"/>
+      <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" ht="15" customHeight="1">
-      <c r="A259" s="43"/>
+      <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" ht="15" customHeight="1">
-      <c r="A260" s="43"/>
+      <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261" ht="15" customHeight="1">
-      <c r="A261" s="43"/>
+      <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
